--- a/update_instances/ig/StructureDefinition-oncology-patient.xlsx
+++ b/update_instances/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:24:55+00:00</t>
+    <t>2024-03-27T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1172,7 +1172,7 @@
 dateTime</t>
   </si>
   <si>
-    <t>Indicates if the patient is deceased or not</t>
+    <t>Indicates if the individual is deceased or not</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not.</t>
@@ -6621,7 +6621,7 @@
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>91</v>
